--- a/donnees/paiements/virEspChq/VIR ESP Dons Adhesions Janvier 2024 VERSION du 01082024.xlsx
+++ b/donnees/paiements/virEspChq/VIR ESP Dons Adhesions Janvier 2024 VERSION du 01082024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\TichoFisco\donnees\paiements\virEspChq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A23D4A-6803-4208-ABA4-56F9883C2571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF999F0-AC1F-45DE-84FF-EB8237D094A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="276">
   <si>
     <t>Date</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>1 allée Keanu Reeves</t>
+  </si>
+  <si>
+    <t>ESP5</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1259,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,6 +2779,41 @@
         <v>224</v>
       </c>
       <c r="K43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="3">
+        <v>15</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" t="s">
         <v>37</v>
       </c>
     </row>
